--- a/data/trans_orig/P16A06-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A06-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17918</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11099</v>
+        <v>11234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27494</v>
+        <v>28209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03067433282934526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01900130248113939</v>
+        <v>0.01923240075579976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04706821151652811</v>
+        <v>0.04829069967879843</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -765,19 +765,19 @@
         <v>68196</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51780</v>
+        <v>52688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84554</v>
+        <v>85730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07393876367623235</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05614005381052003</v>
+        <v>0.05712494979550153</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09167431380751197</v>
+        <v>0.09294913135267176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -786,19 +786,19 @@
         <v>86114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69021</v>
+        <v>68470</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106827</v>
+        <v>104046</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0571628110556567</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04581605064425372</v>
+        <v>0.04545017706925437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07091178237680379</v>
+        <v>0.06906602205259681</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>566223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>556647</v>
+        <v>555932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>573042</v>
+        <v>572907</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9693256671706547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9529317884834719</v>
+        <v>0.9517093003212012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9809986975188606</v>
+        <v>0.9807675992442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>819</v>
@@ -836,19 +836,19 @@
         <v>854137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>837779</v>
+        <v>836603</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>870553</v>
+        <v>869645</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9260612363237677</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.908325686192488</v>
+        <v>0.9070508686473284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9438599461894799</v>
+        <v>0.9428750502044985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1374</v>
@@ -857,19 +857,19 @@
         <v>1420360</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1399647</v>
+        <v>1402428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1437453</v>
+        <v>1438004</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9428371889443433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9290882176231962</v>
+        <v>0.9309339779474034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9541839493557462</v>
+        <v>0.9545498229307456</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>17909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11837</v>
+        <v>10982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28460</v>
+        <v>28792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01661488576850162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01098161497769259</v>
+        <v>0.01018853752773083</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02640319561392633</v>
+        <v>0.02671178825220755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -982,19 +982,19 @@
         <v>38876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27499</v>
+        <v>28661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51943</v>
+        <v>54216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03676120337216797</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02600284042065093</v>
+        <v>0.02710184053478137</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04911713411811763</v>
+        <v>0.0512659702351673</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -1003,19 +1003,19 @@
         <v>56785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43094</v>
+        <v>43622</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73546</v>
+        <v>73104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02659202207297816</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02018043840585105</v>
+        <v>0.02042753000113363</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03444082854134434</v>
+        <v>0.034234026050954</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1059985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1049434</v>
+        <v>1049102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1066057</v>
+        <v>1066912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9833851142314983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9735968043860733</v>
+        <v>0.9732882117477927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9890183850223073</v>
+        <v>0.9898114624722693</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>991</v>
@@ -1053,19 +1053,19 @@
         <v>1018662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1005595</v>
+        <v>1003322</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1030039</v>
+        <v>1028877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9632387966278321</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9508828658818824</v>
+        <v>0.9487340297648328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9739971595793491</v>
+        <v>0.9728981594652186</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2028</v>
@@ -1074,19 +1074,19 @@
         <v>2078647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2061886</v>
+        <v>2062328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2092338</v>
+        <v>2091810</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9734079779270218</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9655591714586558</v>
+        <v>0.965765973949046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.979819561594149</v>
+        <v>0.9795724699988664</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>17254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10176</v>
+        <v>10224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29071</v>
+        <v>27034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01539742295973347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009080602333405104</v>
+        <v>0.009123863960344935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02594313601027759</v>
+        <v>0.02412527486043535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1199,19 +1199,19 @@
         <v>20846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13100</v>
+        <v>12748</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31965</v>
+        <v>31489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02097320601923699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01318024312756042</v>
+        <v>0.01282616144302122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03215995051149823</v>
+        <v>0.03168072928285476</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1220,19 +1220,19 @@
         <v>38100</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27333</v>
+        <v>26716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52647</v>
+        <v>51366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01801835009759713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01292648778431547</v>
+        <v>0.0126346595455155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02489794852907919</v>
+        <v>0.02429190534170657</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1103322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1091505</v>
+        <v>1093542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1110400</v>
+        <v>1110352</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9846025770402665</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9740568639897224</v>
+        <v>0.9758747251395646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9909193976665949</v>
+        <v>0.9908761360396551</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>962</v>
@@ -1270,19 +1270,19 @@
         <v>973094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>961975</v>
+        <v>962451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>980840</v>
+        <v>981192</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.979026793980763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9678400494885014</v>
+        <v>0.9683192707171449</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9868197568724395</v>
+        <v>0.9871738385569786</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2047</v>
@@ -1291,19 +1291,19 @@
         <v>2076416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2061869</v>
+        <v>2063150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2087183</v>
+        <v>2087800</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9819816499024029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9751020514709208</v>
+        <v>0.9757080946582937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9870735122156843</v>
+        <v>0.9873653404544845</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9270</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4624</v>
+        <v>4581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16562</v>
+        <v>16296</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02072857351619845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01033880469983243</v>
+        <v>0.01024419673704871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03703577218395084</v>
+        <v>0.03643910510832365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>9783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17914</v>
+        <v>18198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02867498668877877</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01454553538349651</v>
+        <v>0.01454167705764046</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05250879744260296</v>
+        <v>0.05334230064694367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1437,19 +1437,19 @@
         <v>19053</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12206</v>
+        <v>11789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28759</v>
+        <v>28388</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0241673466381047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01548253983657898</v>
+        <v>0.01495382958822424</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03647988804922783</v>
+        <v>0.03600841474247077</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>437930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430638</v>
+        <v>430904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>442576</v>
+        <v>442619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9792714264838015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629642278160502</v>
+        <v>0.9635608948916764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9896611953001676</v>
+        <v>0.9897558032629513</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>329</v>
@@ -1487,19 +1487,19 @@
         <v>331375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>323244</v>
+        <v>322960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336196</v>
+        <v>336197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9713250133112212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.947491202557397</v>
+        <v>0.9466576993530558</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9854544646165034</v>
+        <v>0.9854583229423596</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>755</v>
@@ -1508,19 +1508,19 @@
         <v>769305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>759599</v>
+        <v>759970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>776152</v>
+        <v>776569</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9758326533618953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9635201119507723</v>
+        <v>0.9639915852575293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.984517460163421</v>
+        <v>0.9850461704117759</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>62351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47681</v>
+        <v>48732</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78432</v>
+        <v>77710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01930485258062862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01476276631297875</v>
+        <v>0.01508822431902848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0242837746872973</v>
+        <v>0.02406027446802997</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -1633,19 +1633,19 @@
         <v>137701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116040</v>
+        <v>114913</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160820</v>
+        <v>163121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04153925718609564</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03500481434693364</v>
+        <v>0.03466478863004354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0485131280439322</v>
+        <v>0.04920751552979843</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>197</v>
@@ -1654,19 +1654,19 @@
         <v>200052</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174238</v>
+        <v>174227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229105</v>
+        <v>232460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03056670685504506</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02662239167443616</v>
+        <v>0.0266208289050831</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03500571868393428</v>
+        <v>0.03551835354297792</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3167460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3151379</v>
+        <v>3152101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3182130</v>
+        <v>3181079</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9806951474193714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9757162253127027</v>
+        <v>0.9759397255319699</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9852372336870212</v>
+        <v>0.9849117756809714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3101</v>
@@ -1704,19 +1704,19 @@
         <v>3177268</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3154149</v>
+        <v>3151848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3198929</v>
+        <v>3200056</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9584607428139044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9514868719560678</v>
+        <v>0.9507924844702016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9649951856530663</v>
+        <v>0.9653352113699565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6204</v>
@@ -1725,19 +1725,19 @@
         <v>6344728</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6315675</v>
+        <v>6312320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6370542</v>
+        <v>6370553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.969433293144955</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9649942813160657</v>
+        <v>0.9644816464570221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9733776083255639</v>
+        <v>0.9733791710949169</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>20455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12080</v>
+        <v>11757</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33883</v>
+        <v>33830</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01971052568626751</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01164048652191264</v>
+        <v>0.01132946599716971</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03265009573485863</v>
+        <v>0.0325990213848172</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -2090,19 +2090,19 @@
         <v>102004</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84328</v>
+        <v>85046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123241</v>
+        <v>126633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09167268327842443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0757871574675715</v>
+        <v>0.07643199576569835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1107581595413049</v>
+        <v>0.1138069910508806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -2111,19 +2111,19 @@
         <v>122459</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100964</v>
+        <v>100936</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146032</v>
+        <v>145497</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05694558916296173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04695024116886046</v>
+        <v>0.04693705039076539</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06790752320827451</v>
+        <v>0.06765866340552446</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1017300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1003872</v>
+        <v>1003925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1025675</v>
+        <v>1025998</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9802894743137325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9673499042651413</v>
+        <v>0.9674009786151827</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9883595134780874</v>
+        <v>0.9886705340028297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>932</v>
@@ -2161,19 +2161,19 @@
         <v>1010697</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>989460</v>
+        <v>986068</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1028373</v>
+        <v>1027655</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9083273167215755</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8892418404586951</v>
+        <v>0.8861930089491196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9242128425324285</v>
+        <v>0.9235680042343019</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1888</v>
@@ -2182,19 +2182,19 @@
         <v>2027998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2004425</v>
+        <v>2004960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2049493</v>
+        <v>2049521</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9430544108370382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9320924767917256</v>
+        <v>0.9323413365944758</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9530497588311397</v>
+        <v>0.9530629496092347</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>18582</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10742</v>
+        <v>10831</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31959</v>
+        <v>30426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01905138547608865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01101386502850314</v>
+        <v>0.01110518303369971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03276698679477158</v>
+        <v>0.03119470516647324</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -2307,19 +2307,19 @@
         <v>62593</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47482</v>
+        <v>47907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80827</v>
+        <v>78833</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05730989946228517</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04347448211040963</v>
+        <v>0.04386381461660158</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07400525597742229</v>
+        <v>0.07217951730519831</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -2328,19 +2328,19 @@
         <v>81174</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64443</v>
+        <v>64746</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104551</v>
+        <v>103319</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03926161054840187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03116896508610159</v>
+        <v>0.03131567271413874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05056833495806323</v>
+        <v>0.04997254482954672</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>956762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>943385</v>
+        <v>944918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964602</v>
+        <v>964513</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9809486145239114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9672330132052283</v>
+        <v>0.9688052948335265</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9889861349714968</v>
+        <v>0.9888948169663001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>961</v>
@@ -2378,19 +2378,19 @@
         <v>1029584</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1011350</v>
+        <v>1013344</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1044695</v>
+        <v>1044270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9426901005377148</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9259947440225776</v>
+        <v>0.9278204826948017</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9565255178895904</v>
+        <v>0.9561361853833983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1868</v>
@@ -2399,19 +2399,19 @@
         <v>1986348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1962971</v>
+        <v>1964203</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2003079</v>
+        <v>2002776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9607383894515982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9494316650419367</v>
+        <v>0.9500274551704533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9688310349138983</v>
+        <v>0.9686843272858612</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>14628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7924</v>
+        <v>8270</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25207</v>
+        <v>24681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01654454552973664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008961509072966792</v>
+        <v>0.0093534535131612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02850858435931332</v>
+        <v>0.02791331749873916</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -2524,19 +2524,19 @@
         <v>40943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29444</v>
+        <v>30437</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55174</v>
+        <v>56135</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04685526637872651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03369573239164716</v>
+        <v>0.03483221119907977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0631407728034119</v>
+        <v>0.0642403836941028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2545,19 +2545,19 @@
         <v>55572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41221</v>
+        <v>42073</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71612</v>
+        <v>72432</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03161059143187582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02344762908304828</v>
+        <v>0.02393244430303785</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0407347831902531</v>
+        <v>0.0412012428939583</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>869557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>858978</v>
+        <v>859504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>876261</v>
+        <v>875915</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9834554544702634</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9714914156406865</v>
+        <v>0.9720866825012607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9910384909270331</v>
+        <v>0.9906465464868388</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>781</v>
@@ -2595,19 +2595,19 @@
         <v>832882</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>818651</v>
+        <v>817690</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>844381</v>
+        <v>843388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9531447336212735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9368592271965879</v>
+        <v>0.9357596163058972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9663042676083528</v>
+        <v>0.9651677888009202</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1597</v>
@@ -2616,19 +2616,19 @@
         <v>1702438</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1686398</v>
+        <v>1685578</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1716789</v>
+        <v>1715937</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9683894085681242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9592652168097466</v>
+        <v>0.9587987571060413</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9765523709169517</v>
+        <v>0.9760675556969619</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>15259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8858</v>
+        <v>8850</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25762</v>
+        <v>25219</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03033375714833898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.017610070370862</v>
+        <v>0.01759445966652476</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05121463001368055</v>
+        <v>0.05013523956989905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -2741,19 +2741,19 @@
         <v>14507</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7993</v>
+        <v>8195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24236</v>
+        <v>23162</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03217508683016513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01772782509947196</v>
+        <v>0.01817667866707405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05375386984413048</v>
+        <v>0.05137119001514742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -2762,19 +2762,19 @@
         <v>29765</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21146</v>
+        <v>20287</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42469</v>
+        <v>42422</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03120408416998299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02216862519441487</v>
+        <v>0.02126798234771381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04452138295225072</v>
+        <v>0.0444722335294728</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>487764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>477261</v>
+        <v>477804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494165</v>
+        <v>494173</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.969666242851661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9487853699863197</v>
+        <v>0.9498647604301008</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9823899296291381</v>
+        <v>0.9824055403334753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>396</v>
@@ -2812,19 +2812,19 @@
         <v>436361</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>426632</v>
+        <v>427706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>442875</v>
+        <v>442673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9678249131698349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9462461301558694</v>
+        <v>0.9486288099848526</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.982272174900528</v>
+        <v>0.9818233213329259</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>843</v>
@@ -2833,19 +2833,19 @@
         <v>924126</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>911422</v>
+        <v>911469</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>932745</v>
+        <v>933604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.968795915830017</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9554786170477494</v>
+        <v>0.9555277664705272</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9778313748055851</v>
+        <v>0.9787320176522861</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>68923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52904</v>
+        <v>52984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89781</v>
+        <v>89142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02026974679402532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0155585072061945</v>
+        <v>0.01558220331859756</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02640383315064048</v>
+        <v>0.02621572640499218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>202</v>
@@ -2958,19 +2958,19 @@
         <v>220047</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>193443</v>
+        <v>193215</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>252239</v>
+        <v>249601</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06234380090657086</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05480647259358386</v>
+        <v>0.05474185630653472</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07146438773453871</v>
+        <v>0.07071720794108181</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>261</v>
@@ -2979,19 +2979,19 @@
         <v>288970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>256492</v>
+        <v>257367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>326943</v>
+        <v>324493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04169918040676809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03701244684378097</v>
+        <v>0.03713871253728087</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04717869897566836</v>
+        <v>0.04682523743019625</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3331385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3310527</v>
+        <v>3311166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3347404</v>
+        <v>3347324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9797302532059747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9735961668493597</v>
+        <v>0.973784273595008</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9844414927938057</v>
+        <v>0.9844177966814025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3070</v>
@@ -3029,19 +3029,19 @@
         <v>3309525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3277333</v>
+        <v>3279971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3336129</v>
+        <v>3336357</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9376561990934291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9285356122654609</v>
+        <v>0.9292827920589181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9451935274064159</v>
+        <v>0.9452581436934652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6196</v>
@@ -3050,19 +3050,19 @@
         <v>6640909</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6602936</v>
+        <v>6605386</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6673387</v>
+        <v>6672512</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9583008195932319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9528213010243313</v>
+        <v>0.9531747625698037</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9629875531562184</v>
+        <v>0.9628612874627189</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>28230</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19790</v>
+        <v>18484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41428</v>
+        <v>41147</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02502679752158645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.017544371148235</v>
+        <v>0.01638631341327427</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0367271902515195</v>
+        <v>0.03647760361536042</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -3415,19 +3415,19 @@
         <v>132090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110672</v>
+        <v>111243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155633</v>
+        <v>155422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1048695995727591</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0878654485878502</v>
+        <v>0.08831906510023194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.123561051721488</v>
+        <v>0.12339354664514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -3436,19 +3436,19 @@
         <v>160320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>137888</v>
+        <v>138054</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>190903</v>
+        <v>185143</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06714801980014659</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05775260196615934</v>
+        <v>0.05782236977201702</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07995750646356162</v>
+        <v>0.07754501093550659</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1099767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1086569</v>
+        <v>1086850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1108207</v>
+        <v>1109513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9749732024784136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9632728097484805</v>
+        <v>0.9635223963846395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9824556288517651</v>
+        <v>0.9836136865867259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1068</v>
@@ -3486,19 +3486,19 @@
         <v>1127471</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1103928</v>
+        <v>1104139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1148889</v>
+        <v>1148318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8951304004272409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8764389482785117</v>
+        <v>0.8766064533548603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9121345514121497</v>
+        <v>0.9116809348997685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2108</v>
@@ -3507,19 +3507,19 @@
         <v>2227238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2196655</v>
+        <v>2202415</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2249670</v>
+        <v>2249504</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9328519801998534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9200424935364383</v>
+        <v>0.9224549890644933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9422473980338407</v>
+        <v>0.9421776302279828</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>24122</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15184</v>
+        <v>15428</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35550</v>
+        <v>35170</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02654224529015931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01670688718151669</v>
+        <v>0.01697616837858729</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03911668527049244</v>
+        <v>0.03869868674667177</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -3632,19 +3632,19 @@
         <v>64599</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49545</v>
+        <v>48535</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85340</v>
+        <v>82084</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06418369794659702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0492267020816444</v>
+        <v>0.04822259872732751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08479069385977972</v>
+        <v>0.08155580934459392</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -3653,19 +3653,19 @@
         <v>88722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72617</v>
+        <v>70214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111258</v>
+        <v>110041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04632253596757372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03791393868562957</v>
+        <v>0.03665956719809556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05808886960166981</v>
+        <v>0.05745388087431729</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>884703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>873275</v>
+        <v>873655</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>893641</v>
+        <v>893397</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9734577547098406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9608833147295081</v>
+        <v>0.9613013132533286</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9832931128184837</v>
+        <v>0.9830238316214129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>894</v>
@@ -3703,19 +3703,19 @@
         <v>941876</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>921135</v>
+        <v>924391</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>956930</v>
+        <v>957940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9358163020534029</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9152093061402203</v>
+        <v>0.9184441906554061</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9507732979183555</v>
+        <v>0.9517774012726724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1752</v>
@@ -3724,19 +3724,19 @@
         <v>1826578</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1804042</v>
+        <v>1805259</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1842683</v>
+        <v>1845086</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9536774640324263</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9419111303983302</v>
+        <v>0.9425461191256826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9620860613143705</v>
+        <v>0.9633404328019044</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>18601</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10983</v>
+        <v>11299</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29857</v>
+        <v>28879</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02258112451366089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01333263366875731</v>
+        <v>0.01371679879816869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03624526262483981</v>
+        <v>0.03505724337408574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -3849,19 +3849,19 @@
         <v>41131</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29669</v>
+        <v>28545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56848</v>
+        <v>55201</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0533441261690876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03847800422111684</v>
+        <v>0.03702035985680491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07372700090911216</v>
+        <v>0.07159133576764105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3870,19 +3870,19 @@
         <v>59733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44818</v>
+        <v>45238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75323</v>
+        <v>76561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03745434522562421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02810197128352344</v>
+        <v>0.02836532534291317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04723003726097701</v>
+        <v>0.04800604416641315</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>805158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>793902</v>
+        <v>794880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>812776</v>
+        <v>812460</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9774188754863391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9637547373751598</v>
+        <v>0.9649427566259143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9866673663312426</v>
+        <v>0.9862832012018312</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>692</v>
@@ -3920,19 +3920,19 @@
         <v>729928</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714211</v>
+        <v>715858</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>741390</v>
+        <v>742514</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9466558738309124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9262729990908888</v>
+        <v>0.9284086642323589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9615219957788832</v>
+        <v>0.962979640143195</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1462</v>
@@ -3941,19 +3941,19 @@
         <v>1535085</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1519495</v>
+        <v>1518257</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1550000</v>
+        <v>1549580</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9625456547743758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9527699627390229</v>
+        <v>0.9519939558335869</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9718980287164766</v>
+        <v>0.9716346746570871</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>16054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9611</v>
+        <v>9526</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24007</v>
+        <v>25608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03168365745304978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01896737052474318</v>
+        <v>0.01879992766383858</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04737881447949052</v>
+        <v>0.05053921584759506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -4066,19 +4066,19 @@
         <v>27530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18646</v>
+        <v>18413</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39696</v>
+        <v>39348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05621824258680844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03807670238712669</v>
+        <v>0.03760128485294491</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08106267803392056</v>
+        <v>0.08035256047247052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -4087,19 +4087,19 @@
         <v>43584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32341</v>
+        <v>32200</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58297</v>
+        <v>57016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04374161101396665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03245778555110177</v>
+        <v>0.03231592711561993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05850788405262582</v>
+        <v>0.05722189085260053</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>490647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>482694</v>
+        <v>481093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497090</v>
+        <v>497175</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9683163425469502</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9526211855205095</v>
+        <v>0.9494607841524052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9810326294752568</v>
+        <v>0.9812000723361615</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -4137,19 +4137,19 @@
         <v>462168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>450002</v>
+        <v>450350</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471052</v>
+        <v>471285</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9437817574131916</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9189373219660796</v>
+        <v>0.9196474395275295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9619232976128733</v>
+        <v>0.9623987151470551</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>884</v>
@@ -4158,19 +4158,19 @@
         <v>952814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>938101</v>
+        <v>939382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>964057</v>
+        <v>964198</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9562583889860333</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9414921159473741</v>
+        <v>0.9427781091473996</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9675422144488982</v>
+        <v>0.9676840728843802</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>87008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71310</v>
+        <v>68737</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108520</v>
+        <v>108687</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02583922341434573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02117740353420428</v>
+        <v>0.0204132737075372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03222781939937697</v>
+        <v>0.03227743878674283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>238</v>
@@ -4283,19 +4283,19 @@
         <v>265350</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>234897</v>
+        <v>233047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>296399</v>
+        <v>298541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07523843253764136</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06660355183983743</v>
+        <v>0.06607889974028897</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08404215640797255</v>
+        <v>0.08464954311641094</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -4304,19 +4304,19 @@
         <v>352358</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>313780</v>
+        <v>315058</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>391748</v>
+        <v>390024</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05111030953624069</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0455143929010769</v>
+        <v>0.04569983976766508</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0568238800484029</v>
+        <v>0.05657378425528805</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3280274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3258762</v>
+        <v>3258595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3295972</v>
+        <v>3298545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9741607765856543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9677721806006231</v>
+        <v>0.9677225612132571</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9788225964657957</v>
+        <v>0.9795867262924626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3084</v>
@@ -4354,19 +4354,19 @@
         <v>3261442</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3230393</v>
+        <v>3228251</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3291895</v>
+        <v>3293745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9247615674623586</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9159578435920276</v>
+        <v>0.9153504568835891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9333964481601625</v>
+        <v>0.9339211002597111</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6206</v>
@@ -4375,19 +4375,19 @@
         <v>6541717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6502327</v>
+        <v>6504051</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6580295</v>
+        <v>6579017</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9488896904637593</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9431761199515972</v>
+        <v>0.943426215744712</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9544856070989233</v>
+        <v>0.954300160232335</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>55562</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41100</v>
+        <v>44021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68979</v>
+        <v>73607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1114052720771579</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08240697143777988</v>
+        <v>0.08826409926229238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1383069128092127</v>
+        <v>0.1475867419320927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -4740,19 +4740,19 @@
         <v>104689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90165</v>
+        <v>88449</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121672</v>
+        <v>122617</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1682668284989033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1449236864165685</v>
+        <v>0.1421646786224162</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1955643369932784</v>
+        <v>0.1970838426707339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>219</v>
@@ -4761,19 +4761,19 @@
         <v>160251</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>139976</v>
+        <v>140116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>183210</v>
+        <v>183532</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1429664688778823</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1248785408436714</v>
+        <v>0.1250033248748195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1634495857749587</v>
+        <v>0.1637370423645668</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>443177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>429760</v>
+        <v>425132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>457639</v>
+        <v>454718</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8885947279228422</v>
+        <v>0.888594727922842</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8616930871907873</v>
+        <v>0.8524132580679069</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9175930285622202</v>
+        <v>0.9117359007377075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>698</v>
@@ -4811,19 +4811,19 @@
         <v>517469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>500486</v>
+        <v>499541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>531993</v>
+        <v>533709</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8317331715010967</v>
+        <v>0.8317331715010968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8044356630067216</v>
+        <v>0.8029161573292661</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8550763135834315</v>
+        <v>0.8578353213775837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1095</v>
@@ -4832,19 +4832,19 @@
         <v>960646</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>937687</v>
+        <v>937365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>980921</v>
+        <v>980781</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8570335311221179</v>
+        <v>0.8570335311221178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8365504142250414</v>
+        <v>0.8362629576354331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8751214591563288</v>
+        <v>0.8749966751251804</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>49285</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37302</v>
+        <v>37857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63236</v>
+        <v>62629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05135765497362586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03887067858843469</v>
+        <v>0.03944857937047554</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06589548214281019</v>
+        <v>0.06526317222810418</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>224</v>
@@ -4957,19 +4957,19 @@
         <v>128765</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>112870</v>
+        <v>112109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146833</v>
+        <v>145931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1154585070416824</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1012064215512824</v>
+        <v>0.1005238859790779</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1316600352305833</v>
+        <v>0.13085117031774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>290</v>
@@ -4978,19 +4978,19 @@
         <v>178050</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156472</v>
+        <v>156546</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199018</v>
+        <v>202969</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0858116767111313</v>
+        <v>0.08581167671113127</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07541232002272587</v>
+        <v>0.07544813283776111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09591758644157902</v>
+        <v>0.09782169916730672</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>910357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896406</v>
+        <v>897013</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922340</v>
+        <v>921785</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9486423450263741</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9341045178571894</v>
+        <v>0.9347368277718958</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9611293214115652</v>
+        <v>0.9605514206295243</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1382</v>
@@ -5028,19 +5028,19 @@
         <v>986481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968413</v>
+        <v>969315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1002376</v>
+        <v>1003137</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8845414929583177</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8683399647694167</v>
+        <v>0.86914882968226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8987935784487178</v>
+        <v>0.8994761140209221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2225</v>
@@ -5049,19 +5049,19 @@
         <v>1896838</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1875870</v>
+        <v>1871919</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1918416</v>
+        <v>1918342</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9141883232888688</v>
+        <v>0.9141883232888687</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9040824135584209</v>
+        <v>0.9021783008326937</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9245876799772743</v>
+        <v>0.9245518671622389</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>42741</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32769</v>
+        <v>32382</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56425</v>
+        <v>56611</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04084301629576029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03131403487021792</v>
+        <v>0.03094406304280505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05391857725134518</v>
+        <v>0.05409663685874494</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>153</v>
@@ -5174,19 +5174,19 @@
         <v>87051</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74005</v>
+        <v>73891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102600</v>
+        <v>101311</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08311844104976414</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07066182249932149</v>
+        <v>0.07055279117560273</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09796568726705467</v>
+        <v>0.09673482614488779</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -5195,19 +5195,19 @@
         <v>129792</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111486</v>
+        <v>111363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152327</v>
+        <v>148342</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06198911936683975</v>
+        <v>0.06198911936683976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05324608685760889</v>
+        <v>0.05318714989897412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07275191524797596</v>
+        <v>0.07084846906419953</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1003738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>990054</v>
+        <v>989868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1013710</v>
+        <v>1014097</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9591569837042396</v>
+        <v>0.9591569837042399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9460814227486547</v>
+        <v>0.945903363141255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.968685965129782</v>
+        <v>0.9690559369571945</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1362</v>
@@ -5245,19 +5245,19 @@
         <v>960259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>944710</v>
+        <v>945999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>973305</v>
+        <v>973419</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9168815589502358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9020343127329454</v>
+        <v>0.9032651738551121</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9293381775006786</v>
+        <v>0.9294472088243974</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2334</v>
@@ -5266,19 +5266,19 @@
         <v>1963998</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1941463</v>
+        <v>1945448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1982304</v>
+        <v>1982427</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9380108806331601</v>
+        <v>0.9380108806331603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9272480847520236</v>
+        <v>0.9291515309358004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9467539131423912</v>
+        <v>0.9468128501010257</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>32968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23917</v>
+        <v>23376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45293</v>
+        <v>45971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03378159329973537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02450679651681703</v>
+        <v>0.02395290647059274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04641042505153688</v>
+        <v>0.0471053721802233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -5391,19 +5391,19 @@
         <v>63941</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51777</v>
+        <v>53633</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76129</v>
+        <v>76602</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07036974112559816</v>
+        <v>0.07036974112559813</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05698298338530136</v>
+        <v>0.05902591610161662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08378356239174022</v>
+        <v>0.08430379842623233</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>150</v>
@@ -5412,19 +5412,19 @@
         <v>96909</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79893</v>
+        <v>82268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115437</v>
+        <v>114173</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05142249206296633</v>
+        <v>0.05142249206296631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04239309657886296</v>
+        <v>0.04365350565980317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06125356731161238</v>
+        <v>0.06058312827184387</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>942961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>930636</v>
+        <v>929958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>952012</v>
+        <v>952553</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9662184067002647</v>
+        <v>0.9662184067002646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9535895749484632</v>
+        <v>0.9528946278197767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975493203483183</v>
+        <v>0.9760470935294072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1210</v>
@@ -5462,19 +5462,19 @@
         <v>844701</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>832513</v>
+        <v>832040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>856865</v>
+        <v>855009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9296302588744018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9162164376082597</v>
+        <v>0.9156962015737679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9430170166146986</v>
+        <v>0.9409740838983834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2118</v>
@@ -5483,19 +5483,19 @@
         <v>1787662</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1769134</v>
+        <v>1770398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1804678</v>
+        <v>1802303</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9485775079370337</v>
+        <v>0.9485775079370335</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9387464326883885</v>
+        <v>0.939416871728156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9576069034211373</v>
+        <v>0.9563464943401966</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>180557</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156261</v>
+        <v>156902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>205813</v>
+        <v>205348</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05187241401431743</v>
+        <v>0.05187241401431746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04489254311577449</v>
+        <v>0.04507653630119933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05912811969465029</v>
+        <v>0.05899478938086624</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>649</v>
@@ -5608,19 +5608,19 @@
         <v>384445</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>354051</v>
+        <v>356047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>415140</v>
+        <v>414409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1040909232251084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09586151345443113</v>
+        <v>0.09640203217886917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1124019039943597</v>
+        <v>0.1122039456766973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>869</v>
@@ -5629,19 +5629,19 @@
         <v>565002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>526644</v>
+        <v>528628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>610183</v>
+        <v>605419</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07875527450655748</v>
+        <v>0.07875527450655746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07340859075179958</v>
+        <v>0.07368512318197078</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08505303268875553</v>
+        <v>0.08438896568359068</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3300232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3274976</v>
+        <v>3275441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3324528</v>
+        <v>3323887</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9481275859856824</v>
+        <v>0.9481275859856827</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9408718803053497</v>
+        <v>0.9410052106191341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9551074568842255</v>
+        <v>0.9549234636988008</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4652</v>
@@ -5679,19 +5679,19 @@
         <v>3308911</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3278216</v>
+        <v>3278947</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3339305</v>
+        <v>3337309</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8959090767748915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8875980960056401</v>
+        <v>0.8877960543233028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9041384865455688</v>
+        <v>0.9035979678211309</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7772</v>
@@ -5700,19 +5700,19 @@
         <v>6609144</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6563963</v>
+        <v>6568727</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6647502</v>
+        <v>6645518</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9212447254934425</v>
+        <v>0.9212447254934424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9149469673112436</v>
+        <v>0.9156110343164092</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9265914092482</v>
+        <v>0.9263148768180292</v>
       </c>
     </row>
     <row r="18">
